--- a/translations.xlsx
+++ b/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prakrutimaniar/Database_Of_Indian_Literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425C8417-49F3-5249-AD50-904A926E6F46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D68D0A-2991-5347-BCFF-0B580E4CA9B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16540" xr2:uid="{691A623D-B085-DC46-9FBF-4192AECA51DF}"/>
   </bookViews>
@@ -743,7 +743,7 @@
   <dimension ref="A1:AB996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
